--- a/figures/refit/table 4.xlsx
+++ b/figures/refit/table 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\index\figures\refit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\Thesis in R\figures\refit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B681263-1368-4679-B4C1-AA31C1A24765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC0710-0AE9-495C-8B83-3F6D8454B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15270" yWindow="1695" windowWidth="13605" windowHeight="16755" xr2:uid="{94C1F065-4678-40A8-826E-AE6466094709}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{94C1F065-4678-40A8-826E-AE6466094709}"/>
   </bookViews>
   <sheets>
     <sheet name="edited" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="128">
   <si>
     <t/>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Censored due to HU or NSE</t>
+  </si>
+  <si>
+    <t>Days listed (mean (SD))</t>
   </si>
 </sst>
 </file>
@@ -852,16 +858,17 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,7 +1135,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1232,7 +1239,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>

--- a/figures/refit/table 4.xlsx
+++ b/figures/refit/table 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\Thesis in R\figures\refit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\index\figures\refit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC0710-0AE9-495C-8B83-3F6D8454B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B681263-1368-4679-B4C1-AA31C1A24765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{94C1F065-4678-40A8-826E-AE6466094709}"/>
+    <workbookView xWindow="-15270" yWindow="1695" windowWidth="13605" windowHeight="16755" xr2:uid="{94C1F065-4678-40A8-826E-AE6466094709}"/>
   </bookViews>
   <sheets>
     <sheet name="edited" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
   <si>
     <t/>
   </si>
@@ -427,12 +427,6 @@
   </si>
   <si>
     <t>Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Censored due to HU or NSE</t>
-  </si>
-  <si>
-    <t>Days listed (mean (SD))</t>
   </si>
 </sst>
 </file>
@@ -858,17 +852,16 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,7 +1128,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1239,7 +1232,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>
